--- a/hmm/dialogue/startScene.xlsx
+++ b/hmm/dialogue/startScene.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\ShoddyGame\hmm\dialogue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sehu\Desktop\Create with Code\ShoddyGame\hmm\dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D22D01-C3F4-4FAA-B71C-A3FDC36C5320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE7E590-17B2-478A-BC5F-4D44A78E9F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11505" xr2:uid="{7A9A44A9-41EF-46F1-A309-2849521E753E}"/>
+    <workbookView xWindow="6465" yWindow="2700" windowWidth="16350" windowHeight="11460" xr2:uid="{7A9A44A9-41EF-46F1-A309-2849521E753E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_selection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +149,13 @@
   </si>
   <si>
     <t>일단 빨리 들어가서 정리하고 좀 쉬자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterID</t>
+  </si>
+  <si>
+    <t>BGID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,20 +520,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DE07F7-8FD9-4F47-A55E-6F082B76AD22}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="62.375" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,194 +544,335 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
